--- a/Code/Results/Cases/Case_4_140/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_140/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004175128761813</v>
+        <v>1.064266334283068</v>
       </c>
       <c r="D2">
-        <v>1.022527948689453</v>
+        <v>1.062798811363362</v>
       </c>
       <c r="E2">
-        <v>1.012322731763351</v>
+        <v>1.067969375299551</v>
       </c>
       <c r="F2">
-        <v>1.026932309087604</v>
+        <v>1.072318345708968</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043979923325599</v>
+        <v>1.044349348132172</v>
       </c>
       <c r="J2">
-        <v>1.026231675552097</v>
+        <v>1.069227456614976</v>
       </c>
       <c r="K2">
-        <v>1.033682107471622</v>
+        <v>1.065519181323221</v>
       </c>
       <c r="L2">
-        <v>1.023613019851316</v>
+        <v>1.070675813482637</v>
       </c>
       <c r="M2">
-        <v>1.038028764219595</v>
+        <v>1.075013178320608</v>
       </c>
       <c r="N2">
-        <v>1.027689042241799</v>
+        <v>1.070745882245473</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014113753701073</v>
+        <v>1.066141018215524</v>
       </c>
       <c r="D3">
-        <v>1.030031639770616</v>
+        <v>1.064212215937001</v>
       </c>
       <c r="E3">
-        <v>1.021731426142934</v>
+        <v>1.069796595076647</v>
       </c>
       <c r="F3">
-        <v>1.035104109533252</v>
+        <v>1.073885558473027</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046962038735724</v>
+        <v>1.044804074581916</v>
       </c>
       <c r="J3">
-        <v>1.034226920880121</v>
+        <v>1.070752902397079</v>
       </c>
       <c r="K3">
-        <v>1.04029415582228</v>
+        <v>1.06674596883758</v>
       </c>
       <c r="L3">
-        <v>1.032093599566962</v>
+        <v>1.072316408056803</v>
       </c>
       <c r="M3">
-        <v>1.045306696507756</v>
+        <v>1.07639526338018</v>
       </c>
       <c r="N3">
-        <v>1.035695641735256</v>
+        <v>1.072273494335557</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020303099168765</v>
+        <v>1.067350788483526</v>
       </c>
       <c r="D4">
-        <v>1.034707218973238</v>
+        <v>1.065123726779319</v>
       </c>
       <c r="E4">
-        <v>1.027597222662539</v>
+        <v>1.070976023199897</v>
       </c>
       <c r="F4">
-        <v>1.040199750497005</v>
+        <v>1.074896778972174</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048804852666524</v>
+        <v>1.04509553987373</v>
       </c>
       <c r="J4">
-        <v>1.039201332131471</v>
+        <v>1.071736426952033</v>
       </c>
       <c r="K4">
-        <v>1.044404054555766</v>
+        <v>1.067536205030597</v>
       </c>
       <c r="L4">
-        <v>1.037373603364026</v>
+        <v>1.073374640260272</v>
       </c>
       <c r="M4">
-        <v>1.049836051282814</v>
+        <v>1.077286200280109</v>
       </c>
       <c r="N4">
-        <v>1.040677117221156</v>
+        <v>1.073258415608192</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022851433138304</v>
+        <v>1.067858609720217</v>
       </c>
       <c r="D5">
-        <v>1.036632721993953</v>
+        <v>1.065506206727062</v>
       </c>
       <c r="E5">
-        <v>1.03001378697053</v>
+        <v>1.071471175916684</v>
       </c>
       <c r="F5">
-        <v>1.042299151751115</v>
+        <v>1.075321222334025</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049560054625665</v>
+        <v>1.045217412967399</v>
       </c>
       <c r="J5">
-        <v>1.041248217902589</v>
+        <v>1.072149067597703</v>
       </c>
       <c r="K5">
-        <v>1.046094211203313</v>
+        <v>1.067867575673414</v>
       </c>
       <c r="L5">
-        <v>1.039547111958293</v>
+        <v>1.073818736390159</v>
       </c>
       <c r="M5">
-        <v>1.051700030189762</v>
+        <v>1.077659957382229</v>
       </c>
       <c r="N5">
-        <v>1.042726909804851</v>
+        <v>1.073671642250908</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023276275277927</v>
+        <v>1.067943830730767</v>
       </c>
       <c r="D6">
-        <v>1.036953749729153</v>
+        <v>1.065570384979411</v>
       </c>
       <c r="E6">
-        <v>1.03041674339798</v>
+        <v>1.07155427490859</v>
       </c>
       <c r="F6">
-        <v>1.042649226094721</v>
+        <v>1.075392449125881</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049685746113424</v>
+        <v>1.045237837500603</v>
       </c>
       <c r="J6">
-        <v>1.041589386970208</v>
+        <v>1.072218303347691</v>
       </c>
       <c r="K6">
-        <v>1.046375861514528</v>
+        <v>1.067923165071477</v>
       </c>
       <c r="L6">
-        <v>1.039909437896133</v>
+        <v>1.073893256515734</v>
       </c>
       <c r="M6">
-        <v>1.052010724266972</v>
+        <v>1.077722666722726</v>
       </c>
       <c r="N6">
-        <v>1.043068563371679</v>
+        <v>1.073740976323603</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C7">
-        <v>1.020337355836622</v>
+        <v>1.06735757700179</v>
       </c>
       <c r="D7">
-        <v>1.034733101603779</v>
+        <v>1.06512884030398</v>
       </c>
       <c r="E7">
-        <v>1.027629702387149</v>
+        <v>1.070982642099475</v>
       </c>
       <c r="F7">
-        <v>1.040227967062806</v>
+        <v>1.074902453033884</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048815018829689</v>
+        <v>1.045097170930214</v>
       </c>
       <c r="J7">
-        <v>1.039228852926937</v>
+        <v>1.07174194393</v>
       </c>
       <c r="K7">
-        <v>1.044426783077798</v>
+        <v>1.067540636124137</v>
       </c>
       <c r="L7">
-        <v>1.037402823145673</v>
+        <v>1.073380577356703</v>
       </c>
       <c r="M7">
-        <v>1.049861112048723</v>
+        <v>1.077291197538451</v>
       </c>
       <c r="N7">
-        <v>1.040704677099309</v>
+        <v>1.073263940420899</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007586630075582</v>
+        <v>1.064900581611754</v>
       </c>
       <c r="D8">
-        <v>1.025102962568008</v>
+        <v>1.063277118473475</v>
       </c>
       <c r="E8">
-        <v>1.015550887645595</v>
+        <v>1.068587504402887</v>
       </c>
       <c r="F8">
-        <v>1.02973580122662</v>
+        <v>1.072848595261348</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045006527431934</v>
+        <v>1.044503602270964</v>
       </c>
       <c r="J8">
-        <v>1.028977026096073</v>
+        <v>1.069743730157399</v>
       </c>
       <c r="K8">
-        <v>1.035953304345324</v>
+        <v>1.065934527745849</v>
       </c>
       <c r="L8">
-        <v>1.026524253161257</v>
+        <v>1.07123096145843</v>
       </c>
       <c r="M8">
-        <v>1.040527500956897</v>
+        <v>1.075480964776879</v>
       </c>
       <c r="N8">
-        <v>1.030438291498445</v>
+        <v>1.071262888955544</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9830505318036706</v>
+        <v>1.060545142889151</v>
       </c>
       <c r="D9">
-        <v>1.006604008009838</v>
+        <v>1.059990174943042</v>
       </c>
       <c r="E9">
-        <v>0.9923672118958187</v>
+        <v>1.064343963599601</v>
       </c>
       <c r="F9">
-        <v>1.00961175753722</v>
+        <v>1.069206834632276</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037564915466229</v>
+        <v>1.043436194655049</v>
       </c>
       <c r="J9">
-        <v>1.009216351973844</v>
+        <v>1.066194843928174</v>
       </c>
       <c r="K9">
-        <v>1.019590840818213</v>
+        <v>1.06307642968555</v>
       </c>
       <c r="L9">
-        <v>1.005585351668203</v>
+        <v>1.067416769894175</v>
       </c>
       <c r="M9">
-        <v>1.022550792034377</v>
+        <v>1.07226476122519</v>
       </c>
       <c r="N9">
-        <v>1.01064955495238</v>
+        <v>1.06770896290081</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9649401678168348</v>
+        <v>1.057622963506295</v>
       </c>
       <c r="D10">
-        <v>0.9929898859773906</v>
+        <v>1.057781966783147</v>
       </c>
       <c r="E10">
-        <v>0.9753061199724282</v>
+        <v>1.061498415010269</v>
       </c>
       <c r="F10">
-        <v>0.9948225368712486</v>
+        <v>1.066762936738059</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032003501678703</v>
+        <v>1.042709841406134</v>
       </c>
       <c r="J10">
-        <v>0.9946173287133867</v>
+        <v>1.063809316029272</v>
       </c>
       <c r="K10">
-        <v>1.007486874316243</v>
+        <v>1.061151504477627</v>
       </c>
       <c r="L10">
-        <v>0.990136018012669</v>
+        <v>1.064855317919721</v>
       </c>
       <c r="M10">
-        <v>1.009285905502399</v>
+        <v>1.070102107379366</v>
       </c>
       <c r="N10">
-        <v>0.9960297994043622</v>
+        <v>1.065320047278667</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9565787278289403</v>
+        <v>1.056352971562898</v>
       </c>
       <c r="D11">
-        <v>0.986718932724268</v>
+        <v>1.056821598659925</v>
       </c>
       <c r="E11">
-        <v>0.9674441332099266</v>
+        <v>1.060262105886974</v>
       </c>
       <c r="F11">
-        <v>0.9880152186484135</v>
+        <v>1.065700700058196</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02942196448003</v>
+        <v>1.042391753031163</v>
       </c>
       <c r="J11">
-        <v>0.9878764985985478</v>
+        <v>1.062771498569558</v>
       </c>
       <c r="K11">
-        <v>1.001895733275021</v>
+        <v>1.0603131913717</v>
       </c>
       <c r="L11">
-        <v>0.9830072780349228</v>
+        <v>1.063741536213217</v>
       </c>
       <c r="M11">
-        <v>1.003166745740295</v>
+        <v>1.06916108108315</v>
       </c>
       <c r="N11">
-        <v>0.9892793965375757</v>
+        <v>1.064280755999122</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9533837808866463</v>
+        <v>1.055880516430759</v>
       </c>
       <c r="D12">
-        <v>0.9843254876973416</v>
+        <v>1.056464228787609</v>
       </c>
       <c r="E12">
-        <v>0.9644425833817258</v>
+        <v>1.0598022389733</v>
       </c>
       <c r="F12">
-        <v>0.9854177918022169</v>
+        <v>1.065305518411104</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028433719696716</v>
+        <v>1.042273057870849</v>
       </c>
       <c r="J12">
-        <v>0.9853009895522395</v>
+        <v>1.062385257547692</v>
       </c>
       <c r="K12">
-        <v>0.9997592765041586</v>
+        <v>1.060001067661179</v>
       </c>
       <c r="L12">
-        <v>0.9802842553311218</v>
+        <v>1.063327109547507</v>
       </c>
       <c r="M12">
-        <v>1.000829799781178</v>
+        <v>1.068810837764133</v>
       </c>
       <c r="N12">
-        <v>0.9867002299730068</v>
+        <v>1.063893966470702</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9540733447671789</v>
+        <v>1.055981892761776</v>
       </c>
       <c r="D13">
-        <v>0.9848419319830133</v>
+        <v>1.056540915339446</v>
       </c>
       <c r="E13">
-        <v>0.9650902860133374</v>
+        <v>1.05990091158171</v>
       </c>
       <c r="F13">
-        <v>0.9859782171562902</v>
+        <v>1.065390314527839</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028647089821255</v>
+        <v>1.042298543057278</v>
       </c>
       <c r="J13">
-        <v>0.9858568466341426</v>
+        <v>1.062468141762116</v>
       </c>
       <c r="K13">
-        <v>1.000220382770536</v>
+        <v>1.060068052838824</v>
       </c>
       <c r="L13">
-        <v>0.9808719181710517</v>
+        <v>1.063416038297872</v>
       </c>
       <c r="M13">
-        <v>1.001334119045743</v>
+        <v>1.068885998268484</v>
       </c>
       <c r="N13">
-        <v>0.9872568764357237</v>
+        <v>1.063976968390217</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9563165232203444</v>
+        <v>1.056313933163986</v>
       </c>
       <c r="D14">
-        <v>0.9865224479580162</v>
+        <v>1.056792071631214</v>
       </c>
       <c r="E14">
-        <v>0.967197746899903</v>
+        <v>1.06022410645554</v>
       </c>
       <c r="F14">
-        <v>0.9878019736208068</v>
+        <v>1.065668046958411</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029340895973767</v>
+        <v>1.042381952765034</v>
       </c>
       <c r="J14">
-        <v>0.9876651246267567</v>
+        <v>1.062739587159003</v>
       </c>
       <c r="K14">
-        <v>1.001720396149558</v>
+        <v>1.060287406245919</v>
       </c>
       <c r="L14">
-        <v>0.9827837834708852</v>
+        <v>1.063707294344827</v>
       </c>
       <c r="M14">
-        <v>1.002974928647787</v>
+        <v>1.069132144319372</v>
       </c>
       <c r="N14">
-        <v>0.9890677223905</v>
+        <v>1.064248799270703</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9576864374895069</v>
+        <v>1.056518417667075</v>
       </c>
       <c r="D15">
-        <v>0.9875491156301018</v>
+        <v>1.056946731192326</v>
       </c>
       <c r="E15">
-        <v>0.968485122155237</v>
+        <v>1.06042315117809</v>
       </c>
       <c r="F15">
-        <v>0.9889162463050426</v>
+        <v>1.065839084460318</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029764374201564</v>
+        <v>1.042433272101658</v>
       </c>
       <c r="J15">
-        <v>0.9887694788120261</v>
+        <v>1.06290673377979</v>
       </c>
       <c r="K15">
-        <v>1.002636462692809</v>
+        <v>1.060422459034175</v>
       </c>
       <c r="L15">
-        <v>0.9839514916291359</v>
+        <v>1.063886651020152</v>
       </c>
       <c r="M15">
-        <v>1.003977148270288</v>
+        <v>1.06928370923095</v>
       </c>
       <c r="N15">
-        <v>0.9901736448853832</v>
+        <v>1.064416183258864</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9654832476863523</v>
+        <v>1.057707148437323</v>
       </c>
       <c r="D16">
-        <v>0.9933975286997254</v>
+        <v>1.057845613459213</v>
       </c>
       <c r="E16">
-        <v>0.975817091702425</v>
+        <v>1.061580375220822</v>
       </c>
       <c r="F16">
-        <v>0.9952651464244164</v>
+        <v>1.066833347916705</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032170909745116</v>
+        <v>1.042730876083108</v>
       </c>
       <c r="J16">
-        <v>0.9950551597853601</v>
+        <v>1.063878088456579</v>
       </c>
       <c r="K16">
-        <v>1.007849993258174</v>
+        <v>1.061207038022613</v>
       </c>
       <c r="L16">
-        <v>0.9905991404230478</v>
+        <v>1.064929136226507</v>
       </c>
       <c r="M16">
-        <v>1.009683488756196</v>
+        <v>1.070164462301303</v>
       </c>
       <c r="N16">
-        <v>0.9964682522466773</v>
+        <v>1.06538891737071</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9702277406776535</v>
+        <v>1.058451542296113</v>
       </c>
       <c r="D17">
-        <v>0.9969604875577147</v>
+        <v>1.058408323389795</v>
       </c>
       <c r="E17">
-        <v>0.9802827839693291</v>
+        <v>1.062305141061618</v>
       </c>
       <c r="F17">
-        <v>0.999134277294462</v>
+        <v>1.067455937007</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033631910377322</v>
+        <v>1.042916594333395</v>
       </c>
       <c r="J17">
-        <v>0.9988801364553914</v>
+        <v>1.064486077588913</v>
       </c>
       <c r="K17">
-        <v>1.01102202115443</v>
+        <v>1.061697886276516</v>
       </c>
       <c r="L17">
-        <v>0.9946455911994158</v>
+        <v>1.065581799729565</v>
       </c>
       <c r="M17">
-        <v>1.013157502811588</v>
+        <v>1.070715697420514</v>
       </c>
       <c r="N17">
-        <v>1.000298660822311</v>
+        <v>1.065997769917349</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9729458507675877</v>
+        <v>1.058885285657598</v>
       </c>
       <c r="D18">
-        <v>0.9990030165275107</v>
+        <v>1.058736138444488</v>
       </c>
       <c r="E18">
-        <v>0.9828425411819046</v>
+        <v>1.062727483978536</v>
       </c>
       <c r="F18">
-        <v>1.001352781331039</v>
+        <v>1.067818696660351</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034467609398431</v>
+        <v>1.043024576365177</v>
       </c>
       <c r="J18">
-        <v>1.001071386126754</v>
+        <v>1.064840238887722</v>
       </c>
       <c r="K18">
-        <v>1.012838981424284</v>
+        <v>1.061983726871049</v>
       </c>
       <c r="L18">
-        <v>0.9969641560900587</v>
+        <v>1.065962039359529</v>
       </c>
       <c r="M18">
-        <v>1.015148204791923</v>
+        <v>1.071036782427267</v>
       </c>
       <c r="N18">
-        <v>1.002493022319547</v>
+        <v>1.066352434165825</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9738645997113038</v>
+        <v>1.059033105444852</v>
       </c>
       <c r="D19">
-        <v>0.9996936217940452</v>
+        <v>1.058847846824819</v>
       </c>
       <c r="E19">
-        <v>0.9837079900224768</v>
+        <v>1.062871424643356</v>
       </c>
       <c r="F19">
-        <v>1.002102963609615</v>
+        <v>1.067942323354602</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034749855984871</v>
+        <v>1.043061337238552</v>
       </c>
       <c r="J19">
-        <v>1.001812031438187</v>
+        <v>1.064960919818656</v>
       </c>
       <c r="K19">
-        <v>1.013453073983381</v>
+        <v>1.062081113051591</v>
       </c>
       <c r="L19">
-        <v>0.9977479085511683</v>
+        <v>1.066091615839116</v>
       </c>
       <c r="M19">
-        <v>1.015821146518105</v>
+        <v>1.071146189769396</v>
       </c>
       <c r="N19">
-        <v>1.003234719432276</v>
+        <v>1.066473286477523</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9697238709279788</v>
+        <v>1.05837172247975</v>
       </c>
       <c r="D20">
-        <v>0.9965819573109397</v>
+        <v>1.058347991852108</v>
       </c>
       <c r="E20">
-        <v>0.9798083783719134</v>
+        <v>1.062227422143809</v>
       </c>
       <c r="F20">
-        <v>0.9987231716973721</v>
+        <v>1.067389179139599</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033476884969593</v>
+        <v>1.042896704178337</v>
       </c>
       <c r="J20">
-        <v>0.9984739258855292</v>
+        <v>1.064420894695606</v>
       </c>
       <c r="K20">
-        <v>1.010685176330688</v>
+        <v>1.061645270888001</v>
       </c>
       <c r="L20">
-        <v>0.9942158147089843</v>
+        <v>1.065511821583105</v>
       </c>
       <c r="M20">
-        <v>1.012788509808935</v>
+        <v>1.070656600848761</v>
       </c>
       <c r="N20">
-        <v>0.9998918733868468</v>
+        <v>1.065932494456857</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9556585242692656</v>
+        <v>1.056216175694684</v>
       </c>
       <c r="D21">
-        <v>0.9860294175889339</v>
+        <v>1.056718130332012</v>
       </c>
       <c r="E21">
-        <v>0.9665794858257711</v>
+        <v>1.0601289516374</v>
       </c>
       <c r="F21">
-        <v>0.9872668992379823</v>
+        <v>1.065586278921002</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029137427294124</v>
+        <v>1.042357405724224</v>
       </c>
       <c r="J21">
-        <v>0.9871346886431615</v>
+        <v>1.062659674088447</v>
       </c>
       <c r="K21">
-        <v>1.001280390481232</v>
+        <v>1.060222832594758</v>
       </c>
       <c r="L21">
-        <v>0.9822229424125309</v>
+        <v>1.063621546687776</v>
       </c>
       <c r="M21">
-        <v>1.002493587349076</v>
+        <v>1.069059680010516</v>
       </c>
       <c r="N21">
-        <v>0.9885365331269661</v>
+        <v>1.064168772714421</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9462920470425193</v>
+        <v>1.054856700324547</v>
       </c>
       <c r="D22">
-        <v>0.9790185313269344</v>
+        <v>1.055689624077213</v>
       </c>
       <c r="E22">
-        <v>0.9577852442976338</v>
+        <v>1.058805808238392</v>
       </c>
       <c r="F22">
-        <v>0.9796599035108716</v>
+        <v>1.064449130440029</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026237083315776</v>
+        <v>1.042015182751028</v>
       </c>
       <c r="J22">
-        <v>0.9795849256648614</v>
+        <v>1.061547979850011</v>
       </c>
       <c r="K22">
-        <v>0.9950174174197101</v>
+        <v>1.059324218366196</v>
       </c>
       <c r="L22">
-        <v>0.9742420808449656</v>
+        <v>1.062428888938955</v>
       </c>
       <c r="M22">
-        <v>0.9956453650344586</v>
+        <v>1.06805154997145</v>
       </c>
       <c r="N22">
-        <v>0.980976048619267</v>
+        <v>1.063055499742653</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9513113155516186</v>
+        <v>1.055577789274528</v>
       </c>
       <c r="D23">
-        <v>0.9827737727798381</v>
+        <v>1.056235215152601</v>
       </c>
       <c r="E23">
-        <v>0.9624963315580748</v>
+        <v>1.059507594114907</v>
       </c>
       <c r="F23">
-        <v>0.9837340380820261</v>
+        <v>1.065052300648632</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027792196184411</v>
+        <v>1.042196901799414</v>
       </c>
       <c r="J23">
-        <v>0.9836304294726068</v>
+        <v>1.062137727926709</v>
       </c>
       <c r="K23">
-        <v>0.9983734586884666</v>
+        <v>1.059801000511497</v>
       </c>
       <c r="L23">
-        <v>0.9785182083790324</v>
+        <v>1.063061540763758</v>
       </c>
       <c r="M23">
-        <v>0.9993142989080618</v>
+        <v>1.06858637105697</v>
       </c>
       <c r="N23">
-        <v>0.9850272975064452</v>
+        <v>1.063646085329266</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9699516994297417</v>
+        <v>1.058407791005825</v>
       </c>
       <c r="D24">
-        <v>0.9967531085486164</v>
+        <v>1.058375254325545</v>
       </c>
       <c r="E24">
-        <v>0.9800228801865741</v>
+        <v>1.062262541215262</v>
       </c>
       <c r="F24">
-        <v>0.9989090503537787</v>
+        <v>1.067419345338876</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033546984957337</v>
+        <v>1.042905692746963</v>
       </c>
       <c r="J24">
-        <v>0.9986575972960852</v>
+        <v>1.064450349486547</v>
       </c>
       <c r="K24">
-        <v>1.010837484177106</v>
+        <v>1.061669046947314</v>
       </c>
       <c r="L24">
-        <v>0.9944101402797644</v>
+        <v>1.065543443079092</v>
       </c>
       <c r="M24">
-        <v>1.012955351414869</v>
+        <v>1.070683305408508</v>
       </c>
       <c r="N24">
-        <v>1.000075805631873</v>
+        <v>1.06596199107698</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9896724250914142</v>
+        <v>1.061674313968651</v>
       </c>
       <c r="D25">
-        <v>1.011591246528093</v>
+        <v>1.060842850752039</v>
       </c>
       <c r="E25">
-        <v>0.9986163489437</v>
+        <v>1.065443854453747</v>
       </c>
       <c r="F25">
-        <v>1.015033590649669</v>
+        <v>1.070151083467423</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039585490017759</v>
+        <v>1.043714721079308</v>
       </c>
       <c r="J25">
-        <v>1.014552423081462</v>
+        <v>1.067115702733835</v>
       </c>
       <c r="K25">
-        <v>1.024012249208358</v>
+        <v>1.063818702829042</v>
       </c>
       <c r="L25">
-        <v>1.011236182353636</v>
+        <v>1.068406045880015</v>
       </c>
       <c r="M25">
-        <v>1.02740292747571</v>
+        <v>1.073099431115885</v>
       </c>
       <c r="N25">
-        <v>1.015993203893027</v>
+        <v>1.068631129431599</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_140/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_140/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.064266334283068</v>
+        <v>1.004175128761815</v>
       </c>
       <c r="D2">
-        <v>1.062798811363362</v>
+        <v>1.022527948689455</v>
       </c>
       <c r="E2">
-        <v>1.067969375299551</v>
+        <v>1.012322731763353</v>
       </c>
       <c r="F2">
-        <v>1.072318345708968</v>
+        <v>1.026932309087607</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044349348132172</v>
+        <v>1.0439799233256</v>
       </c>
       <c r="J2">
-        <v>1.069227456614976</v>
+        <v>1.026231675552099</v>
       </c>
       <c r="K2">
-        <v>1.065519181323221</v>
+        <v>1.033682107471624</v>
       </c>
       <c r="L2">
-        <v>1.070675813482637</v>
+        <v>1.023613019851318</v>
       </c>
       <c r="M2">
-        <v>1.075013178320608</v>
+        <v>1.038028764219598</v>
       </c>
       <c r="N2">
-        <v>1.070745882245473</v>
+        <v>1.027689042241802</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.066141018215524</v>
+        <v>1.014113753701071</v>
       </c>
       <c r="D3">
-        <v>1.064212215937001</v>
+        <v>1.030031639770615</v>
       </c>
       <c r="E3">
-        <v>1.069796595076647</v>
+        <v>1.021731426142932</v>
       </c>
       <c r="F3">
-        <v>1.073885558473027</v>
+        <v>1.035104109533252</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044804074581916</v>
+        <v>1.046962038735724</v>
       </c>
       <c r="J3">
-        <v>1.070752902397079</v>
+        <v>1.034226920880119</v>
       </c>
       <c r="K3">
-        <v>1.06674596883758</v>
+        <v>1.040294155822278</v>
       </c>
       <c r="L3">
-        <v>1.072316408056803</v>
+        <v>1.032093599566961</v>
       </c>
       <c r="M3">
-        <v>1.07639526338018</v>
+        <v>1.045306696507755</v>
       </c>
       <c r="N3">
-        <v>1.072273494335557</v>
+        <v>1.035695641735255</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.067350788483526</v>
+        <v>1.020303099168761</v>
       </c>
       <c r="D4">
-        <v>1.065123726779319</v>
+        <v>1.034707218973235</v>
       </c>
       <c r="E4">
-        <v>1.070976023199897</v>
+        <v>1.027597222662535</v>
       </c>
       <c r="F4">
-        <v>1.074896778972174</v>
+        <v>1.040199750497002</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04509553987373</v>
+        <v>1.048804852666523</v>
       </c>
       <c r="J4">
-        <v>1.071736426952033</v>
+        <v>1.039201332131467</v>
       </c>
       <c r="K4">
-        <v>1.067536205030597</v>
+        <v>1.044404054555763</v>
       </c>
       <c r="L4">
-        <v>1.073374640260272</v>
+        <v>1.037373603364022</v>
       </c>
       <c r="M4">
-        <v>1.077286200280109</v>
+        <v>1.049836051282811</v>
       </c>
       <c r="N4">
-        <v>1.073258415608192</v>
+        <v>1.040677117221153</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.067858609720217</v>
+        <v>1.022851433138305</v>
       </c>
       <c r="D5">
-        <v>1.065506206727062</v>
+        <v>1.036632721993954</v>
       </c>
       <c r="E5">
-        <v>1.071471175916684</v>
+        <v>1.030013786970531</v>
       </c>
       <c r="F5">
-        <v>1.075321222334025</v>
+        <v>1.042299151751116</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045217412967399</v>
+        <v>1.049560054625665</v>
       </c>
       <c r="J5">
-        <v>1.072149067597703</v>
+        <v>1.04124821790259</v>
       </c>
       <c r="K5">
-        <v>1.067867575673414</v>
+        <v>1.046094211203314</v>
       </c>
       <c r="L5">
-        <v>1.073818736390159</v>
+        <v>1.039547111958293</v>
       </c>
       <c r="M5">
-        <v>1.077659957382229</v>
+        <v>1.051700030189763</v>
       </c>
       <c r="N5">
-        <v>1.073671642250908</v>
+        <v>1.042726909804852</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.067943830730767</v>
+        <v>1.02327627527793</v>
       </c>
       <c r="D6">
-        <v>1.065570384979411</v>
+        <v>1.036953749729156</v>
       </c>
       <c r="E6">
-        <v>1.07155427490859</v>
+        <v>1.030416743397984</v>
       </c>
       <c r="F6">
-        <v>1.075392449125881</v>
+        <v>1.042649226094723</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045237837500603</v>
+        <v>1.049685746113426</v>
       </c>
       <c r="J6">
-        <v>1.072218303347691</v>
+        <v>1.041589386970211</v>
       </c>
       <c r="K6">
-        <v>1.067923165071477</v>
+        <v>1.046375861514531</v>
       </c>
       <c r="L6">
-        <v>1.073893256515734</v>
+        <v>1.039909437896136</v>
       </c>
       <c r="M6">
-        <v>1.077722666722726</v>
+        <v>1.052010724266975</v>
       </c>
       <c r="N6">
-        <v>1.073740976323603</v>
+        <v>1.043068563371681</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.06735757700179</v>
+        <v>1.020337355836624</v>
       </c>
       <c r="D7">
-        <v>1.06512884030398</v>
+        <v>1.03473310160378</v>
       </c>
       <c r="E7">
-        <v>1.070982642099475</v>
+        <v>1.027629702387151</v>
       </c>
       <c r="F7">
-        <v>1.074902453033884</v>
+        <v>1.040227967062807</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045097170930214</v>
+        <v>1.04881501882969</v>
       </c>
       <c r="J7">
-        <v>1.07174194393</v>
+        <v>1.039228852926939</v>
       </c>
       <c r="K7">
-        <v>1.067540636124137</v>
+        <v>1.044426783077799</v>
       </c>
       <c r="L7">
-        <v>1.073380577356703</v>
+        <v>1.037402823145674</v>
       </c>
       <c r="M7">
-        <v>1.077291197538451</v>
+        <v>1.049861112048724</v>
       </c>
       <c r="N7">
-        <v>1.073263940420899</v>
+        <v>1.04070467709931</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.064900581611754</v>
+        <v>1.007586630075586</v>
       </c>
       <c r="D8">
-        <v>1.063277118473475</v>
+        <v>1.025102962568011</v>
       </c>
       <c r="E8">
-        <v>1.068587504402887</v>
+        <v>1.015550887645599</v>
       </c>
       <c r="F8">
-        <v>1.072848595261348</v>
+        <v>1.029735801226623</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044503602270964</v>
+        <v>1.045006527431936</v>
       </c>
       <c r="J8">
-        <v>1.069743730157399</v>
+        <v>1.028977026096077</v>
       </c>
       <c r="K8">
-        <v>1.065934527745849</v>
+        <v>1.035953304345328</v>
       </c>
       <c r="L8">
-        <v>1.07123096145843</v>
+        <v>1.026524253161261</v>
       </c>
       <c r="M8">
-        <v>1.075480964776879</v>
+        <v>1.0405275009569</v>
       </c>
       <c r="N8">
-        <v>1.071262888955544</v>
+        <v>1.030438291498448</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.060545142889151</v>
+        <v>0.98305053180367</v>
       </c>
       <c r="D9">
-        <v>1.059990174943042</v>
+        <v>1.006604008009837</v>
       </c>
       <c r="E9">
-        <v>1.064343963599601</v>
+        <v>0.9923672118958178</v>
       </c>
       <c r="F9">
-        <v>1.069206834632276</v>
+        <v>1.009611757537219</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043436194655049</v>
+        <v>1.037564915466229</v>
       </c>
       <c r="J9">
-        <v>1.066194843928174</v>
+        <v>1.009216351973843</v>
       </c>
       <c r="K9">
-        <v>1.06307642968555</v>
+        <v>1.019590840818213</v>
       </c>
       <c r="L9">
-        <v>1.067416769894175</v>
+        <v>1.005585351668202</v>
       </c>
       <c r="M9">
-        <v>1.07226476122519</v>
+        <v>1.022550792034377</v>
       </c>
       <c r="N9">
-        <v>1.06770896290081</v>
+        <v>1.010649554952379</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.057622963506295</v>
+        <v>0.9649401678168357</v>
       </c>
       <c r="D10">
-        <v>1.057781966783147</v>
+        <v>0.9929898859773911</v>
       </c>
       <c r="E10">
-        <v>1.061498415010269</v>
+        <v>0.9753061199724296</v>
       </c>
       <c r="F10">
-        <v>1.066762936738059</v>
+        <v>0.9948225368712492</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042709841406134</v>
+        <v>1.032003501678703</v>
       </c>
       <c r="J10">
-        <v>1.063809316029272</v>
+        <v>0.9946173287133878</v>
       </c>
       <c r="K10">
-        <v>1.061151504477627</v>
+        <v>1.007486874316244</v>
       </c>
       <c r="L10">
-        <v>1.064855317919721</v>
+        <v>0.9901360180126703</v>
       </c>
       <c r="M10">
-        <v>1.070102107379366</v>
+        <v>1.0092859055024</v>
       </c>
       <c r="N10">
-        <v>1.065320047278667</v>
+        <v>0.9960297994043631</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.056352971562898</v>
+        <v>0.9565787278289393</v>
       </c>
       <c r="D11">
-        <v>1.056821598659925</v>
+        <v>0.9867189327242673</v>
       </c>
       <c r="E11">
-        <v>1.060262105886974</v>
+        <v>0.9674441332099252</v>
       </c>
       <c r="F11">
-        <v>1.065700700058196</v>
+        <v>0.9880152186484125</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042391753031163</v>
+        <v>1.02942196448003</v>
       </c>
       <c r="J11">
-        <v>1.062771498569558</v>
+        <v>0.9878764985985466</v>
       </c>
       <c r="K11">
-        <v>1.0603131913717</v>
+        <v>1.00189573327502</v>
       </c>
       <c r="L11">
-        <v>1.063741536213217</v>
+        <v>0.9830072780349214</v>
       </c>
       <c r="M11">
-        <v>1.06916108108315</v>
+        <v>1.003166745740294</v>
       </c>
       <c r="N11">
-        <v>1.064280755999122</v>
+        <v>0.9892793965375748</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.055880516430759</v>
+        <v>0.9533837808866444</v>
       </c>
       <c r="D12">
-        <v>1.056464228787609</v>
+        <v>0.9843254876973394</v>
       </c>
       <c r="E12">
-        <v>1.0598022389733</v>
+        <v>0.9644425833817237</v>
       </c>
       <c r="F12">
-        <v>1.065305518411104</v>
+        <v>0.985417791802215</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042273057870849</v>
+        <v>1.028433719696715</v>
       </c>
       <c r="J12">
-        <v>1.062385257547692</v>
+        <v>0.9853009895522375</v>
       </c>
       <c r="K12">
-        <v>1.060001067661179</v>
+        <v>0.9997592765041565</v>
       </c>
       <c r="L12">
-        <v>1.063327109547507</v>
+        <v>0.9802842553311198</v>
       </c>
       <c r="M12">
-        <v>1.068810837764133</v>
+        <v>1.000829799781176</v>
       </c>
       <c r="N12">
-        <v>1.063893966470702</v>
+        <v>0.9867002299730048</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.055981892761776</v>
+        <v>0.9540733447671795</v>
       </c>
       <c r="D13">
-        <v>1.056540915339446</v>
+        <v>0.9848419319830138</v>
       </c>
       <c r="E13">
-        <v>1.05990091158171</v>
+        <v>0.9650902860133379</v>
       </c>
       <c r="F13">
-        <v>1.065390314527839</v>
+        <v>0.9859782171562907</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042298543057278</v>
+        <v>1.028647089821256</v>
       </c>
       <c r="J13">
-        <v>1.062468141762116</v>
+        <v>0.9858568466341432</v>
       </c>
       <c r="K13">
-        <v>1.060068052838824</v>
+        <v>1.000220382770537</v>
       </c>
       <c r="L13">
-        <v>1.063416038297872</v>
+        <v>0.9808719181710521</v>
       </c>
       <c r="M13">
-        <v>1.068885998268484</v>
+        <v>1.001334119045744</v>
       </c>
       <c r="N13">
-        <v>1.063976968390217</v>
+        <v>0.9872568764357246</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.056313933163986</v>
+        <v>0.9563165232203429</v>
       </c>
       <c r="D14">
-        <v>1.056792071631214</v>
+        <v>0.9865224479580155</v>
       </c>
       <c r="E14">
-        <v>1.06022410645554</v>
+        <v>0.9671977468999015</v>
       </c>
       <c r="F14">
-        <v>1.065668046958411</v>
+        <v>0.9878019736208057</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042381952765034</v>
+        <v>1.029340895973767</v>
       </c>
       <c r="J14">
-        <v>1.062739587159003</v>
+        <v>0.9876651246267553</v>
       </c>
       <c r="K14">
-        <v>1.060287406245919</v>
+        <v>1.001720396149557</v>
       </c>
       <c r="L14">
-        <v>1.063707294344827</v>
+        <v>0.9827837834708839</v>
       </c>
       <c r="M14">
-        <v>1.069132144319372</v>
+        <v>1.002974928647786</v>
       </c>
       <c r="N14">
-        <v>1.064248799270703</v>
+        <v>0.9890677223904986</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.056518417667075</v>
+        <v>0.9576864374895077</v>
       </c>
       <c r="D15">
-        <v>1.056946731192326</v>
+        <v>0.9875491156301023</v>
       </c>
       <c r="E15">
-        <v>1.06042315117809</v>
+        <v>0.9684851221552384</v>
       </c>
       <c r="F15">
-        <v>1.065839084460318</v>
+        <v>0.9889162463050427</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042433272101658</v>
+        <v>1.029764374201564</v>
       </c>
       <c r="J15">
-        <v>1.06290673377979</v>
+        <v>0.988769478812027</v>
       </c>
       <c r="K15">
-        <v>1.060422459034175</v>
+        <v>1.002636462692809</v>
       </c>
       <c r="L15">
-        <v>1.063886651020152</v>
+        <v>0.9839514916291371</v>
       </c>
       <c r="M15">
-        <v>1.06928370923095</v>
+        <v>1.003977148270288</v>
       </c>
       <c r="N15">
-        <v>1.064416183258864</v>
+        <v>0.9901736448853845</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.057707148437323</v>
+        <v>0.9654832476863529</v>
       </c>
       <c r="D16">
-        <v>1.057845613459213</v>
+        <v>0.9933975286997258</v>
       </c>
       <c r="E16">
-        <v>1.061580375220822</v>
+        <v>0.9758170917024263</v>
       </c>
       <c r="F16">
-        <v>1.066833347916705</v>
+        <v>0.9952651464244174</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042730876083108</v>
+        <v>1.032170909745116</v>
       </c>
       <c r="J16">
-        <v>1.063878088456579</v>
+        <v>0.9950551597853606</v>
       </c>
       <c r="K16">
-        <v>1.061207038022613</v>
+        <v>1.007849993258175</v>
       </c>
       <c r="L16">
-        <v>1.064929136226507</v>
+        <v>0.9905991404230488</v>
       </c>
       <c r="M16">
-        <v>1.070164462301303</v>
+        <v>1.009683488756197</v>
       </c>
       <c r="N16">
-        <v>1.06538891737071</v>
+        <v>0.9964682522466782</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.058451542296113</v>
+        <v>0.9702277406776539</v>
       </c>
       <c r="D17">
-        <v>1.058408323389795</v>
+        <v>0.9969604875577147</v>
       </c>
       <c r="E17">
-        <v>1.062305141061618</v>
+        <v>0.9802827839693299</v>
       </c>
       <c r="F17">
-        <v>1.067455937007</v>
+        <v>0.9991342772944624</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042916594333395</v>
+        <v>1.033631910377322</v>
       </c>
       <c r="J17">
-        <v>1.064486077588913</v>
+        <v>0.9988801364553919</v>
       </c>
       <c r="K17">
-        <v>1.061697886276516</v>
+        <v>1.01102202115443</v>
       </c>
       <c r="L17">
-        <v>1.065581799729565</v>
+        <v>0.9946455911994164</v>
       </c>
       <c r="M17">
-        <v>1.070715697420514</v>
+        <v>1.013157502811589</v>
       </c>
       <c r="N17">
-        <v>1.065997769917349</v>
+        <v>1.000298660822311</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.058885285657598</v>
+        <v>0.9729458507675895</v>
       </c>
       <c r="D18">
-        <v>1.058736138444488</v>
+        <v>0.9990030165275123</v>
       </c>
       <c r="E18">
-        <v>1.062727483978536</v>
+        <v>0.9828425411819062</v>
       </c>
       <c r="F18">
-        <v>1.067818696660351</v>
+        <v>1.001352781331041</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043024576365177</v>
+        <v>1.034467609398431</v>
       </c>
       <c r="J18">
-        <v>1.064840238887722</v>
+        <v>1.001071386126756</v>
       </c>
       <c r="K18">
-        <v>1.061983726871049</v>
+        <v>1.012838981424285</v>
       </c>
       <c r="L18">
-        <v>1.065962039359529</v>
+        <v>0.9969641560900603</v>
       </c>
       <c r="M18">
-        <v>1.071036782427267</v>
+        <v>1.015148204791924</v>
       </c>
       <c r="N18">
-        <v>1.066352434165825</v>
+        <v>1.002493022319549</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.059033105444852</v>
+        <v>0.9738645997113011</v>
       </c>
       <c r="D19">
-        <v>1.058847846824819</v>
+        <v>0.9996936217940433</v>
       </c>
       <c r="E19">
-        <v>1.062871424643356</v>
+        <v>0.9837079900224739</v>
       </c>
       <c r="F19">
-        <v>1.067942323354602</v>
+        <v>1.002102963609613</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043061337238552</v>
+        <v>1.03474985598487</v>
       </c>
       <c r="J19">
-        <v>1.064960919818656</v>
+        <v>1.001812031438185</v>
       </c>
       <c r="K19">
-        <v>1.062081113051591</v>
+        <v>1.013453073983379</v>
       </c>
       <c r="L19">
-        <v>1.066091615839116</v>
+        <v>0.9977479085511655</v>
       </c>
       <c r="M19">
-        <v>1.071146189769396</v>
+        <v>1.015821146518103</v>
       </c>
       <c r="N19">
-        <v>1.066473286477523</v>
+        <v>1.003234719432273</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.05837172247975</v>
+        <v>0.9697238709279761</v>
       </c>
       <c r="D20">
-        <v>1.058347991852108</v>
+        <v>0.9965819573109375</v>
       </c>
       <c r="E20">
-        <v>1.062227422143809</v>
+        <v>0.9798083783719108</v>
       </c>
       <c r="F20">
-        <v>1.067389179139599</v>
+        <v>0.9987231716973699</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042896704178337</v>
+        <v>1.033476884969592</v>
       </c>
       <c r="J20">
-        <v>1.064420894695606</v>
+        <v>0.9984739258855265</v>
       </c>
       <c r="K20">
-        <v>1.061645270888001</v>
+        <v>1.010685176330686</v>
       </c>
       <c r="L20">
-        <v>1.065511821583105</v>
+        <v>0.9942158147089817</v>
       </c>
       <c r="M20">
-        <v>1.070656600848761</v>
+        <v>1.012788509808933</v>
       </c>
       <c r="N20">
-        <v>1.065932494456857</v>
+        <v>0.9998918733868443</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.056216175694684</v>
+        <v>0.9556585242692661</v>
       </c>
       <c r="D21">
-        <v>1.056718130332012</v>
+        <v>0.986029417588934</v>
       </c>
       <c r="E21">
-        <v>1.0601289516374</v>
+        <v>0.9665794858257712</v>
       </c>
       <c r="F21">
-        <v>1.065586278921002</v>
+        <v>0.9872668992379829</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042357405724224</v>
+        <v>1.029137427294124</v>
       </c>
       <c r="J21">
-        <v>1.062659674088447</v>
+        <v>0.9871346886431618</v>
       </c>
       <c r="K21">
-        <v>1.060222832594758</v>
+        <v>1.001280390481233</v>
       </c>
       <c r="L21">
-        <v>1.063621546687776</v>
+        <v>0.9822229424125311</v>
       </c>
       <c r="M21">
-        <v>1.069059680010516</v>
+        <v>1.002493587349077</v>
       </c>
       <c r="N21">
-        <v>1.064168772714421</v>
+        <v>0.9885365331269667</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.054856700324547</v>
+        <v>0.9462920470425178</v>
       </c>
       <c r="D22">
-        <v>1.055689624077213</v>
+        <v>0.979018531326933</v>
       </c>
       <c r="E22">
-        <v>1.058805808238392</v>
+        <v>0.9577852442976317</v>
       </c>
       <c r="F22">
-        <v>1.064449130440029</v>
+        <v>0.9796599035108702</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042015182751028</v>
+        <v>1.026237083315776</v>
       </c>
       <c r="J22">
-        <v>1.061547979850011</v>
+        <v>0.9795849256648599</v>
       </c>
       <c r="K22">
-        <v>1.059324218366196</v>
+        <v>0.9950174174197087</v>
       </c>
       <c r="L22">
-        <v>1.062428888938955</v>
+        <v>0.9742420808449638</v>
       </c>
       <c r="M22">
-        <v>1.06805154997145</v>
+        <v>0.9956453650344571</v>
       </c>
       <c r="N22">
-        <v>1.063055499742653</v>
+        <v>0.9809760486192655</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.055577789274528</v>
+        <v>0.9513113155516217</v>
       </c>
       <c r="D23">
-        <v>1.056235215152601</v>
+        <v>0.9827737727798406</v>
       </c>
       <c r="E23">
-        <v>1.059507594114907</v>
+        <v>0.9624963315580777</v>
       </c>
       <c r="F23">
-        <v>1.065052300648632</v>
+        <v>0.9837340380820289</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042196901799414</v>
+        <v>1.027792196184412</v>
       </c>
       <c r="J23">
-        <v>1.062137727926709</v>
+        <v>0.9836304294726097</v>
       </c>
       <c r="K23">
-        <v>1.059801000511497</v>
+        <v>0.9983734586884693</v>
       </c>
       <c r="L23">
-        <v>1.063061540763758</v>
+        <v>0.9785182083790354</v>
       </c>
       <c r="M23">
-        <v>1.06858637105697</v>
+        <v>0.9993142989080644</v>
       </c>
       <c r="N23">
-        <v>1.063646085329266</v>
+        <v>0.9850272975064477</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.058407791005825</v>
+        <v>0.9699516994297432</v>
       </c>
       <c r="D24">
-        <v>1.058375254325545</v>
+        <v>0.9967531085486178</v>
       </c>
       <c r="E24">
-        <v>1.062262541215262</v>
+        <v>0.9800228801865759</v>
       </c>
       <c r="F24">
-        <v>1.067419345338876</v>
+        <v>0.9989090503537797</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042905692746963</v>
+        <v>1.033546984957338</v>
       </c>
       <c r="J24">
-        <v>1.064450349486547</v>
+        <v>0.9986575972960866</v>
       </c>
       <c r="K24">
-        <v>1.061669046947314</v>
+        <v>1.010837484177107</v>
       </c>
       <c r="L24">
-        <v>1.065543443079092</v>
+        <v>0.9944101402797663</v>
       </c>
       <c r="M24">
-        <v>1.070683305408508</v>
+        <v>1.01295535141487</v>
       </c>
       <c r="N24">
-        <v>1.06596199107698</v>
+        <v>1.000075805631874</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.061674313968651</v>
+        <v>0.9896724250914167</v>
       </c>
       <c r="D25">
-        <v>1.060842850752039</v>
+        <v>1.011591246528095</v>
       </c>
       <c r="E25">
-        <v>1.065443854453747</v>
+        <v>0.9986163489437025</v>
       </c>
       <c r="F25">
-        <v>1.070151083467423</v>
+        <v>1.015033590649671</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043714721079308</v>
+        <v>1.039585490017759</v>
       </c>
       <c r="J25">
-        <v>1.067115702733835</v>
+        <v>1.014552423081465</v>
       </c>
       <c r="K25">
-        <v>1.063818702829042</v>
+        <v>1.02401224920836</v>
       </c>
       <c r="L25">
-        <v>1.068406045880015</v>
+        <v>1.011236182353638</v>
       </c>
       <c r="M25">
-        <v>1.073099431115885</v>
+        <v>1.027402927475712</v>
       </c>
       <c r="N25">
-        <v>1.068631129431599</v>
+        <v>1.01599320389303</v>
       </c>
     </row>
   </sheetData>
